--- a/examples/sources/data/unsolved/to_schedule/2018-11-30.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-11-30.xlsx
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
         <v>43434</v>
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
         <v>43434</v>
